--- a/AAII_Financials/Quarterly/ZMENY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZMENY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>643100</v>
+        <v>613100</v>
       </c>
       <c r="E8" s="3">
-        <v>183600</v>
+        <v>175000</v>
       </c>
       <c r="F8" s="3">
-        <v>196500</v>
+        <v>187300</v>
       </c>
       <c r="G8" s="3">
-        <v>138100</v>
+        <v>131700</v>
       </c>
       <c r="H8" s="3">
-        <v>148700</v>
+        <v>141700</v>
       </c>
       <c r="I8" s="3">
-        <v>136000</v>
+        <v>129700</v>
       </c>
       <c r="J8" s="3">
-        <v>163900</v>
+        <v>156300</v>
       </c>
       <c r="K8" s="3">
         <v>112000</v>
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>351800</v>
+        <v>335400</v>
       </c>
       <c r="E9" s="3">
-        <v>102800</v>
+        <v>98000</v>
       </c>
       <c r="F9" s="3">
-        <v>109300</v>
+        <v>104100</v>
       </c>
       <c r="G9" s="3">
-        <v>77300</v>
+        <v>73700</v>
       </c>
       <c r="H9" s="3">
-        <v>82300</v>
+        <v>78500</v>
       </c>
       <c r="I9" s="3">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="J9" s="3">
-        <v>88300</v>
+        <v>84100</v>
       </c>
       <c r="K9" s="3">
         <v>66700</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>291300</v>
+        <v>277700</v>
       </c>
       <c r="E10" s="3">
-        <v>80800</v>
+        <v>77100</v>
       </c>
       <c r="F10" s="3">
-        <v>87300</v>
+        <v>83200</v>
       </c>
       <c r="G10" s="3">
-        <v>60800</v>
+        <v>58000</v>
       </c>
       <c r="H10" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="I10" s="3">
-        <v>62100</v>
+        <v>59200</v>
       </c>
       <c r="J10" s="3">
-        <v>75700</v>
+        <v>72100</v>
       </c>
       <c r="K10" s="3">
         <v>45400</v>
@@ -819,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>56900</v>
+        <v>54200</v>
       </c>
       <c r="E12" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="F12" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="H12" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="I12" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="J12" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="K12" s="3">
         <v>10100</v>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>849900</v>
+        <v>810200</v>
       </c>
       <c r="E17" s="3">
-        <v>299100</v>
+        <v>285100</v>
       </c>
       <c r="F17" s="3">
-        <v>273300</v>
+        <v>260500</v>
       </c>
       <c r="G17" s="3">
-        <v>238900</v>
+        <v>227700</v>
       </c>
       <c r="H17" s="3">
-        <v>192500</v>
+        <v>183500</v>
       </c>
       <c r="I17" s="3">
-        <v>170800</v>
+        <v>162900</v>
       </c>
       <c r="J17" s="3">
-        <v>172700</v>
+        <v>164600</v>
       </c>
       <c r="K17" s="3">
         <v>165900</v>
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-206800</v>
+        <v>-197100</v>
       </c>
       <c r="E18" s="3">
-        <v>-115400</v>
+        <v>-110000</v>
       </c>
       <c r="F18" s="3">
-        <v>-76800</v>
+        <v>-73200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100800</v>
+        <v>-96000</v>
       </c>
       <c r="H18" s="3">
-        <v>-43800</v>
+        <v>-41700</v>
       </c>
       <c r="I18" s="3">
-        <v>-34800</v>
+        <v>-33200</v>
       </c>
       <c r="J18" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="K18" s="3">
         <v>-53900</v>
@@ -1016,25 +1016,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34900</v>
+        <v>33300</v>
       </c>
       <c r="E20" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G20" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="H20" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="I20" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="J20" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="K20" s="3">
         <v>4000</v>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-167900</v>
+        <v>-160000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="3">
-        <v>-83100</v>
+        <v>-79200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1063,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1103,22 +1103,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-171900</v>
+        <v>-163900</v>
       </c>
       <c r="E23" s="3">
-        <v>-103700</v>
+        <v>-98900</v>
       </c>
       <c r="F23" s="3">
-        <v>-72600</v>
+        <v>-69200</v>
       </c>
       <c r="G23" s="3">
-        <v>-87300</v>
+        <v>-83300</v>
       </c>
       <c r="H23" s="3">
-        <v>-34500</v>
+        <v>-32800</v>
       </c>
       <c r="I23" s="3">
-        <v>-25300</v>
+        <v>-24100</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1190,22 +1190,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-171900</v>
+        <v>-163900</v>
       </c>
       <c r="E26" s="3">
-        <v>-103700</v>
+        <v>-98900</v>
       </c>
       <c r="F26" s="3">
-        <v>-72600</v>
+        <v>-69200</v>
       </c>
       <c r="G26" s="3">
-        <v>-87600</v>
+        <v>-83500</v>
       </c>
       <c r="H26" s="3">
-        <v>-34600</v>
+        <v>-32900</v>
       </c>
       <c r="I26" s="3">
-        <v>-25400</v>
+        <v>-24200</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E27" s="3">
-        <v>-297500</v>
+        <v>-283600</v>
       </c>
       <c r="F27" s="3">
-        <v>-202700</v>
+        <v>-193200</v>
       </c>
       <c r="G27" s="3">
-        <v>-119900</v>
+        <v>-114300</v>
       </c>
       <c r="H27" s="3">
-        <v>-107000</v>
+        <v>-102000</v>
       </c>
       <c r="I27" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="J27" s="3">
-        <v>-15700</v>
+        <v>-15000</v>
       </c>
       <c r="K27" s="3">
         <v>-65600</v>
@@ -1364,25 +1364,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="E32" s="3">
-        <v>-11700</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-13400</v>
+        <v>-12800</v>
       </c>
       <c r="H32" s="3">
-        <v>-9300</v>
+        <v>-8900</v>
       </c>
       <c r="I32" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="J32" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="K32" s="3">
         <v>-4000</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E33" s="3">
-        <v>-297500</v>
+        <v>-283600</v>
       </c>
       <c r="F33" s="3">
-        <v>-202700</v>
+        <v>-193200</v>
       </c>
       <c r="G33" s="3">
-        <v>-119900</v>
+        <v>-114300</v>
       </c>
       <c r="H33" s="3">
-        <v>-107000</v>
+        <v>-102000</v>
       </c>
       <c r="I33" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="J33" s="3">
-        <v>-15700</v>
+        <v>-15000</v>
       </c>
       <c r="K33" s="3">
         <v>-65600</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E35" s="3">
-        <v>-297500</v>
+        <v>-283600</v>
       </c>
       <c r="F35" s="3">
-        <v>-202700</v>
+        <v>-193200</v>
       </c>
       <c r="G35" s="3">
-        <v>-119900</v>
+        <v>-114300</v>
       </c>
       <c r="H35" s="3">
-        <v>-107000</v>
+        <v>-102000</v>
       </c>
       <c r="I35" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="J35" s="3">
-        <v>-15700</v>
+        <v>-15000</v>
       </c>
       <c r="K35" s="3">
         <v>-65600</v>
@@ -1540,13 +1540,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>309100</v>
+        <v>294700</v>
       </c>
       <c r="E41" s="3">
-        <v>500000</v>
+        <v>476600</v>
       </c>
       <c r="F41" s="3">
-        <v>436800</v>
+        <v>416400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
@@ -1569,13 +1569,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="E42" s="3">
-        <v>100000</v>
+        <v>95300</v>
       </c>
       <c r="F42" s="3">
-        <v>119700</v>
+        <v>114100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1598,13 +1598,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
@@ -1656,13 +1656,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29300</v>
+        <v>28000</v>
       </c>
       <c r="E45" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="F45" s="3">
-        <v>61300</v>
+        <v>58500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1685,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>362400</v>
+        <v>345400</v>
       </c>
       <c r="E46" s="3">
-        <v>684700</v>
+        <v>652700</v>
       </c>
       <c r="F46" s="3">
-        <v>629400</v>
+        <v>600000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="F47" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -1743,13 +1743,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>62600</v>
+        <v>59600</v>
       </c>
       <c r="F48" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
@@ -1862,10 +1862,10 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="F52" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
@@ -1917,13 +1917,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>369000</v>
+        <v>351800</v>
       </c>
       <c r="E54" s="3">
-        <v>795600</v>
+        <v>758400</v>
       </c>
       <c r="F54" s="3">
-        <v>728400</v>
+        <v>694300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
@@ -2030,13 +2030,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490800</v>
+        <v>467900</v>
       </c>
       <c r="E59" s="3">
-        <v>742900</v>
+        <v>708200</v>
       </c>
       <c r="F59" s="3">
-        <v>641300</v>
+        <v>611300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
@@ -2059,13 +2059,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>490800</v>
+        <v>467900</v>
       </c>
       <c r="E60" s="3">
-        <v>742900</v>
+        <v>708200</v>
       </c>
       <c r="F60" s="3">
-        <v>641300</v>
+        <v>611300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
@@ -2117,13 +2117,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>178600</v>
+        <v>170300</v>
       </c>
       <c r="F62" s="3">
-        <v>185700</v>
+        <v>177000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
@@ -2233,13 +2233,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>492700</v>
+        <v>469700</v>
       </c>
       <c r="E66" s="3">
-        <v>921600</v>
+        <v>878400</v>
       </c>
       <c r="F66" s="3">
-        <v>827000</v>
+        <v>788300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1058800</v>
+        <v>1009300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2391,13 +2391,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1440500</v>
+        <v>-1373100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1445000</v>
+        <v>-1377400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1147500</v>
+        <v>-1093800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -2507,13 +2507,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-123700</v>
+        <v>-117900</v>
       </c>
       <c r="E76" s="3">
-        <v>-125900</v>
+        <v>-120000</v>
       </c>
       <c r="F76" s="3">
-        <v>-1157400</v>
+        <v>-1103300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E81" s="3">
-        <v>-297500</v>
+        <v>-283600</v>
       </c>
       <c r="F81" s="3">
-        <v>-202700</v>
+        <v>-193200</v>
       </c>
       <c r="G81" s="3">
-        <v>-119900</v>
+        <v>-114300</v>
       </c>
       <c r="H81" s="3">
-        <v>-107000</v>
+        <v>-102000</v>
       </c>
       <c r="I81" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="J81" s="3">
-        <v>-15700</v>
+        <v>-15000</v>
       </c>
       <c r="K81" s="3">
         <v>-65600</v>
@@ -2641,16 +2641,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3">
         <v>4000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
@@ -2815,7 +2815,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-452500</v>
+        <v>-431300</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
@@ -2824,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="3">
-        <v>50300</v>
+        <v>47900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
@@ -2857,7 +2857,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -2866,7 +2866,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -2944,7 +2944,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>571300</v>
+        <v>544600</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="3">
-        <v>-408000</v>
+        <v>-389000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -3102,7 +3102,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80200</v>
+        <v>76400</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>10</v>
@@ -3111,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>250300</v>
+        <v>238600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
@@ -3131,7 +3131,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>10</v>
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>-15400</v>
+        <v>-14600</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -3160,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>190700</v>
+        <v>181800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>10</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>-122800</v>
+        <v>-117000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/ZMENY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZMENY_QTR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>613100</v>
+        <v>632500</v>
       </c>
       <c r="E8" s="3">
-        <v>175000</v>
+        <v>180600</v>
       </c>
       <c r="F8" s="3">
-        <v>187300</v>
+        <v>193300</v>
       </c>
       <c r="G8" s="3">
-        <v>131700</v>
+        <v>135900</v>
       </c>
       <c r="H8" s="3">
-        <v>141700</v>
+        <v>146200</v>
       </c>
       <c r="I8" s="3">
-        <v>129700</v>
+        <v>133800</v>
       </c>
       <c r="J8" s="3">
-        <v>156300</v>
+        <v>161200</v>
       </c>
       <c r="K8" s="3">
         <v>112000</v>
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>335400</v>
+        <v>346000</v>
       </c>
       <c r="E9" s="3">
-        <v>98000</v>
+        <v>101100</v>
       </c>
       <c r="F9" s="3">
-        <v>104100</v>
+        <v>107400</v>
       </c>
       <c r="G9" s="3">
-        <v>73700</v>
+        <v>76100</v>
       </c>
       <c r="H9" s="3">
-        <v>78500</v>
+        <v>81000</v>
       </c>
       <c r="I9" s="3">
-        <v>70400</v>
+        <v>72700</v>
       </c>
       <c r="J9" s="3">
-        <v>84100</v>
+        <v>86800</v>
       </c>
       <c r="K9" s="3">
         <v>66700</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>277700</v>
+        <v>286500</v>
       </c>
       <c r="E10" s="3">
-        <v>77100</v>
+        <v>79500</v>
       </c>
       <c r="F10" s="3">
-        <v>83200</v>
+        <v>85800</v>
       </c>
       <c r="G10" s="3">
-        <v>58000</v>
+        <v>59800</v>
       </c>
       <c r="H10" s="3">
-        <v>63300</v>
+        <v>65300</v>
       </c>
       <c r="I10" s="3">
-        <v>59200</v>
+        <v>61100</v>
       </c>
       <c r="J10" s="3">
-        <v>72100</v>
+        <v>74400</v>
       </c>
       <c r="K10" s="3">
         <v>45400</v>
@@ -819,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>54200</v>
+        <v>55900</v>
       </c>
       <c r="E12" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="F12" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="G12" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="H12" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="I12" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="J12" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="K12" s="3">
         <v>10100</v>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>810200</v>
+        <v>835900</v>
       </c>
       <c r="E17" s="3">
-        <v>285100</v>
+        <v>294100</v>
       </c>
       <c r="F17" s="3">
-        <v>260500</v>
+        <v>268800</v>
       </c>
       <c r="G17" s="3">
-        <v>227700</v>
+        <v>235000</v>
       </c>
       <c r="H17" s="3">
-        <v>183500</v>
+        <v>189300</v>
       </c>
       <c r="I17" s="3">
-        <v>162900</v>
+        <v>168000</v>
       </c>
       <c r="J17" s="3">
-        <v>164600</v>
+        <v>169900</v>
       </c>
       <c r="K17" s="3">
         <v>165900</v>
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-197100</v>
+        <v>-203400</v>
       </c>
       <c r="E18" s="3">
-        <v>-110000</v>
+        <v>-113500</v>
       </c>
       <c r="F18" s="3">
-        <v>-73200</v>
+        <v>-75500</v>
       </c>
       <c r="G18" s="3">
-        <v>-96000</v>
+        <v>-99100</v>
       </c>
       <c r="H18" s="3">
-        <v>-41700</v>
+        <v>-43000</v>
       </c>
       <c r="I18" s="3">
-        <v>-33200</v>
+        <v>-34200</v>
       </c>
       <c r="J18" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="K18" s="3">
         <v>-53900</v>
@@ -1016,25 +1016,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33300</v>
+        <v>34300</v>
       </c>
       <c r="E20" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="F20" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H20" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I20" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="J20" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K20" s="3">
         <v>4000</v>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-160000</v>
+        <v>-165100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="3">
-        <v>-79200</v>
+        <v>-81700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1103,22 +1103,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-163900</v>
+        <v>-169100</v>
       </c>
       <c r="E23" s="3">
-        <v>-98900</v>
+        <v>-102000</v>
       </c>
       <c r="F23" s="3">
-        <v>-69200</v>
+        <v>-71400</v>
       </c>
       <c r="G23" s="3">
-        <v>-83300</v>
+        <v>-85900</v>
       </c>
       <c r="H23" s="3">
-        <v>-32800</v>
+        <v>-33900</v>
       </c>
       <c r="I23" s="3">
-        <v>-24100</v>
+        <v>-24900</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1190,22 +1190,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-163900</v>
+        <v>-169100</v>
       </c>
       <c r="E26" s="3">
-        <v>-98900</v>
+        <v>-102000</v>
       </c>
       <c r="F26" s="3">
-        <v>-69200</v>
+        <v>-71400</v>
       </c>
       <c r="G26" s="3">
-        <v>-83500</v>
+        <v>-86200</v>
       </c>
       <c r="H26" s="3">
-        <v>-32900</v>
+        <v>-34000</v>
       </c>
       <c r="I26" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E27" s="3">
-        <v>-283600</v>
+        <v>-292600</v>
       </c>
       <c r="F27" s="3">
-        <v>-193200</v>
+        <v>-199300</v>
       </c>
       <c r="G27" s="3">
-        <v>-114300</v>
+        <v>-117900</v>
       </c>
       <c r="H27" s="3">
-        <v>-102000</v>
+        <v>-105200</v>
       </c>
       <c r="I27" s="3">
-        <v>-40500</v>
+        <v>-41800</v>
       </c>
       <c r="J27" s="3">
-        <v>-15000</v>
+        <v>-15400</v>
       </c>
       <c r="K27" s="3">
         <v>-65600</v>
@@ -1364,25 +1364,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33300</v>
+        <v>-34300</v>
       </c>
       <c r="E32" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="H32" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="I32" s="3">
-        <v>-9100</v>
+        <v>-9400</v>
       </c>
       <c r="J32" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="K32" s="3">
         <v>-4000</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E33" s="3">
-        <v>-283600</v>
+        <v>-292600</v>
       </c>
       <c r="F33" s="3">
-        <v>-193200</v>
+        <v>-199300</v>
       </c>
       <c r="G33" s="3">
-        <v>-114300</v>
+        <v>-117900</v>
       </c>
       <c r="H33" s="3">
-        <v>-102000</v>
+        <v>-105200</v>
       </c>
       <c r="I33" s="3">
-        <v>-40500</v>
+        <v>-41800</v>
       </c>
       <c r="J33" s="3">
-        <v>-15000</v>
+        <v>-15400</v>
       </c>
       <c r="K33" s="3">
         <v>-65600</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E35" s="3">
-        <v>-283600</v>
+        <v>-292600</v>
       </c>
       <c r="F35" s="3">
-        <v>-193200</v>
+        <v>-199300</v>
       </c>
       <c r="G35" s="3">
-        <v>-114300</v>
+        <v>-117900</v>
       </c>
       <c r="H35" s="3">
-        <v>-102000</v>
+        <v>-105200</v>
       </c>
       <c r="I35" s="3">
-        <v>-40500</v>
+        <v>-41800</v>
       </c>
       <c r="J35" s="3">
-        <v>-15000</v>
+        <v>-15400</v>
       </c>
       <c r="K35" s="3">
         <v>-65600</v>
@@ -1540,13 +1540,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>294700</v>
+        <v>304000</v>
       </c>
       <c r="E41" s="3">
-        <v>476600</v>
+        <v>491700</v>
       </c>
       <c r="F41" s="3">
-        <v>416400</v>
+        <v>429600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
@@ -1569,13 +1569,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="E42" s="3">
-        <v>95300</v>
+        <v>98300</v>
       </c>
       <c r="F42" s="3">
-        <v>114100</v>
+        <v>117800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1598,13 +1598,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
@@ -1656,13 +1656,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28000</v>
+        <v>28800</v>
       </c>
       <c r="E45" s="3">
-        <v>80800</v>
+        <v>83400</v>
       </c>
       <c r="F45" s="3">
-        <v>58500</v>
+        <v>60300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1685,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>345400</v>
+        <v>356400</v>
       </c>
       <c r="E46" s="3">
-        <v>652700</v>
+        <v>673400</v>
       </c>
       <c r="F46" s="3">
-        <v>600000</v>
+        <v>619000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="F47" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -1743,13 +1743,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>59600</v>
+        <v>61500</v>
       </c>
       <c r="F48" s="3">
-        <v>51000</v>
+        <v>52600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
@@ -1862,10 +1862,10 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="F52" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
@@ -1917,13 +1917,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351800</v>
+        <v>362900</v>
       </c>
       <c r="E54" s="3">
-        <v>758400</v>
+        <v>782500</v>
       </c>
       <c r="F54" s="3">
-        <v>694300</v>
+        <v>716400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
@@ -2030,13 +2030,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>467900</v>
+        <v>482700</v>
       </c>
       <c r="E59" s="3">
-        <v>708200</v>
+        <v>730700</v>
       </c>
       <c r="F59" s="3">
-        <v>611300</v>
+        <v>630700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
@@ -2059,13 +2059,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>467900</v>
+        <v>482700</v>
       </c>
       <c r="E60" s="3">
-        <v>708200</v>
+        <v>730700</v>
       </c>
       <c r="F60" s="3">
-        <v>611300</v>
+        <v>630700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
@@ -2117,13 +2117,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>170300</v>
+        <v>175700</v>
       </c>
       <c r="F62" s="3">
-        <v>177000</v>
+        <v>182700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
@@ -2233,13 +2233,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>469700</v>
+        <v>484600</v>
       </c>
       <c r="E66" s="3">
-        <v>878400</v>
+        <v>906300</v>
       </c>
       <c r="F66" s="3">
-        <v>788300</v>
+        <v>813300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1009300</v>
+        <v>1041300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2391,13 +2391,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1373100</v>
+        <v>-1416700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1377400</v>
+        <v>-1421100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1093800</v>
+        <v>-1128600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -2507,13 +2507,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-117900</v>
+        <v>-121700</v>
       </c>
       <c r="E76" s="3">
-        <v>-120000</v>
+        <v>-123900</v>
       </c>
       <c r="F76" s="3">
-        <v>-1103300</v>
+        <v>-1138300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E81" s="3">
-        <v>-283600</v>
+        <v>-292600</v>
       </c>
       <c r="F81" s="3">
-        <v>-193200</v>
+        <v>-199300</v>
       </c>
       <c r="G81" s="3">
-        <v>-114300</v>
+        <v>-117900</v>
       </c>
       <c r="H81" s="3">
-        <v>-102000</v>
+        <v>-105200</v>
       </c>
       <c r="I81" s="3">
-        <v>-40500</v>
+        <v>-41800</v>
       </c>
       <c r="J81" s="3">
-        <v>-15000</v>
+        <v>-15400</v>
       </c>
       <c r="K81" s="3">
         <v>-65600</v>
@@ -2641,7 +2641,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
@@ -2815,7 +2815,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-431300</v>
+        <v>-445000</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
@@ -2824,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
@@ -2857,7 +2857,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -2866,7 +2866,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -2944,7 +2944,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>544600</v>
+        <v>561900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="3">
-        <v>-389000</v>
+        <v>-401300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -3102,7 +3102,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76400</v>
+        <v>78800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>10</v>
@@ -3111,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>238600</v>
+        <v>246200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
@@ -3131,7 +3131,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>10</v>
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>-14600</v>
+        <v>-15100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -3160,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>181800</v>
+        <v>187500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>10</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>-117000</v>
+        <v>-120800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>10</v>
